--- a/experiment_results/SBFL_ONLY/chart/pbl_multiple_bugs.xlsx
+++ b/experiment_results/SBFL_ONLY/chart/pbl_multiple_bugs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tuanngokien/Desktop/Software_Analysis/configurable_system/InputPreparation/experiment_results/SBFL_ONLY/chart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459595D0-A604-3D49-B4BD-D3FDFB2F970B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0859F57-DA90-ED4A-B5FC-34052DB67F7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{7F9D161E-D20C-224D-84F0-A76D95474BC6}"/>
   </bookViews>
@@ -116,94 +116,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>7.4848907000000006E-2</c:v>
+                  <c:v>7.3593073999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22268712199999999</c:v>
+                  <c:v>0.22470238100000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.371222687</c:v>
+                  <c:v>0.35741341999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.43572756899999998</c:v>
+                  <c:v>0.41125541100000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.485588099</c:v>
+                  <c:v>0.45792748900000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53451882799999995</c:v>
+                  <c:v>0.502840909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.57298930699999995</c:v>
+                  <c:v>0.54261363600000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59890748500000002</c:v>
+                  <c:v>0.57210497800000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.629009763</c:v>
+                  <c:v>0.59618506500000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.65295211500000006</c:v>
+                  <c:v>0.62094155799999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.67387261700000001</c:v>
+                  <c:v>0.641098485</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.69560669500000005</c:v>
+                  <c:v>0.66436688300000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.70420734500000004</c:v>
+                  <c:v>0.67356601699999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.71966527199999997</c:v>
+                  <c:v>0.68912337700000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.73163644800000005</c:v>
+                  <c:v>0.70008116899999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.74384007399999996</c:v>
+                  <c:v>0.71239177499999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.75395164999999997</c:v>
+                  <c:v>0.72307900400000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.76708507699999995</c:v>
+                  <c:v>0.73647186099999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.774174802</c:v>
+                  <c:v>0.74215368000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.78021850299999995</c:v>
+                  <c:v>0.749458874</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.78777312899999996</c:v>
+                  <c:v>0.75716991300000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.79439795400000002</c:v>
+                  <c:v>0.76772186099999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.79962807999999996</c:v>
+                  <c:v>0.77286255400000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.80230125500000005</c:v>
+                  <c:v>0.77637986999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.80741515600000002</c:v>
+                  <c:v>0.78084415600000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.81415620600000005</c:v>
+                  <c:v>0.78503787899999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.81822408199999996</c:v>
+                  <c:v>0.78936688300000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.82171083199999995</c:v>
+                  <c:v>0.79261363600000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.82752208299999996</c:v>
+                  <c:v>0.80032467500000004</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.83356578299999995</c:v>
+                  <c:v>0.80600649400000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1423,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741B31E4-5F8B-9F4E-8F34-1CD252C97D25}">
   <dimension ref="E2:AH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1445,97 +1445,172 @@
       <c r="I2">
         <v>5</v>
       </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <v>9</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>11</v>
+      </c>
+      <c r="P2">
+        <v>12</v>
+      </c>
+      <c r="Q2">
+        <v>13</v>
+      </c>
+      <c r="R2">
+        <v>14</v>
+      </c>
+      <c r="S2">
+        <v>15</v>
+      </c>
+      <c r="T2">
+        <v>16</v>
+      </c>
+      <c r="U2">
+        <v>17</v>
+      </c>
+      <c r="V2">
+        <v>18</v>
+      </c>
+      <c r="W2">
+        <v>19</v>
+      </c>
+      <c r="X2">
+        <v>20</v>
+      </c>
+      <c r="Y2">
+        <v>21</v>
+      </c>
+      <c r="Z2">
+        <v>22</v>
+      </c>
+      <c r="AA2">
+        <v>23</v>
+      </c>
+      <c r="AB2">
+        <v>24</v>
+      </c>
+      <c r="AC2">
+        <v>25</v>
+      </c>
+      <c r="AD2">
+        <v>26</v>
+      </c>
+      <c r="AE2">
+        <v>27</v>
+      </c>
+      <c r="AF2">
+        <v>28</v>
+      </c>
+      <c r="AG2">
+        <v>29</v>
+      </c>
+      <c r="AH2">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="5:34" x14ac:dyDescent="0.2">
       <c r="E3">
-        <v>7.4848907000000006E-2</v>
+        <v>7.3593073999999994E-2</v>
       </c>
       <c r="F3">
-        <v>0.22268712199999999</v>
+        <v>0.22470238100000001</v>
       </c>
       <c r="G3">
-        <v>0.371222687</v>
+        <v>0.35741341999999998</v>
       </c>
       <c r="H3">
-        <v>0.43572756899999998</v>
+        <v>0.41125541100000002</v>
       </c>
       <c r="I3">
-        <v>0.485588099</v>
+        <v>0.45792748900000002</v>
       </c>
       <c r="J3">
-        <v>0.53451882799999995</v>
+        <v>0.502840909</v>
       </c>
       <c r="K3">
-        <v>0.57298930699999995</v>
+        <v>0.54261363600000001</v>
       </c>
       <c r="L3">
-        <v>0.59890748500000002</v>
+        <v>0.57210497800000004</v>
       </c>
       <c r="M3">
-        <v>0.629009763</v>
+        <v>0.59618506500000001</v>
       </c>
       <c r="N3">
-        <v>0.65295211500000006</v>
+        <v>0.62094155799999995</v>
       </c>
       <c r="O3">
-        <v>0.67387261700000001</v>
+        <v>0.641098485</v>
       </c>
       <c r="P3">
-        <v>0.69560669500000005</v>
+        <v>0.66436688300000002</v>
       </c>
       <c r="Q3">
-        <v>0.70420734500000004</v>
+        <v>0.67356601699999996</v>
       </c>
       <c r="R3">
-        <v>0.71966527199999997</v>
+        <v>0.68912337700000004</v>
       </c>
       <c r="S3">
-        <v>0.73163644800000005</v>
+        <v>0.70008116899999995</v>
       </c>
       <c r="T3">
-        <v>0.74384007399999996</v>
+        <v>0.71239177499999995</v>
       </c>
       <c r="U3">
-        <v>0.75395164999999997</v>
+        <v>0.72307900400000003</v>
       </c>
       <c r="V3">
-        <v>0.76708507699999995</v>
+        <v>0.73647186099999995</v>
       </c>
       <c r="W3">
-        <v>0.774174802</v>
+        <v>0.74215368000000004</v>
       </c>
       <c r="X3">
-        <v>0.78021850299999995</v>
+        <v>0.749458874</v>
       </c>
       <c r="Y3">
-        <v>0.78777312899999996</v>
+        <v>0.75716991300000003</v>
       </c>
       <c r="Z3">
-        <v>0.79439795400000002</v>
+        <v>0.76772186099999995</v>
       </c>
       <c r="AA3">
-        <v>0.79962807999999996</v>
+        <v>0.77286255400000003</v>
       </c>
       <c r="AB3">
-        <v>0.80230125500000005</v>
+        <v>0.77637986999999997</v>
       </c>
       <c r="AC3">
-        <v>0.80741515600000002</v>
+        <v>0.78084415600000001</v>
       </c>
       <c r="AD3">
-        <v>0.81415620600000005</v>
+        <v>0.78503787899999999</v>
       </c>
       <c r="AE3">
-        <v>0.81822408199999996</v>
+        <v>0.78936688300000002</v>
       </c>
       <c r="AF3">
-        <v>0.82171083199999995</v>
+        <v>0.79261363600000001</v>
       </c>
       <c r="AG3">
-        <v>0.82752208299999996</v>
+        <v>0.80032467500000004</v>
       </c>
       <c r="AH3">
-        <v>0.83356578299999995</v>
+        <v>0.80600649400000002</v>
       </c>
     </row>
   </sheetData>
